--- a/Bureaurecomm.xlsx
+++ b/Bureaurecomm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uttam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2532F2E-FAF2-407B-9425-FBC43214B57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98DA392-CA63-4EA3-9AC3-3E023B359E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{4C5624B0-5B2E-4D55-AC1B-8EBF545E562A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4C5624B0-5B2E-4D55-AC1B-8EBF545E562A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
   <si>
     <t>amountrequested</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>Banking</t>
+  </si>
+  <si>
+    <t>marketing</t>
+  </si>
+  <si>
+    <t>retail</t>
   </si>
 </sst>
 </file>
@@ -173,11 +179,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -201,15 +206,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>693420</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -224,8 +229,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1303020" y="3116580"/>
-          <a:ext cx="10637520" cy="3108960"/>
+          <a:off x="1082040" y="4114800"/>
+          <a:ext cx="10416540" cy="1623060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -264,8 +269,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-IN" b="1"/>
-            <a:t>Explanation:</a:t>
-          </a:r>
+            <a:t>Explanation: (Final</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" b="1" baseline="0"/>
+            <a:t> Bureau)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" b="1"/>
         </a:p>
         <a:p>
           <a:r>
@@ -276,94 +286,100 @@
             <a:rPr lang="en-IN"/>
             <a:t>:</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>If the range in column F is "350,001-500,000", "500,001-1,000,000", or "Greater than 1,000,000" and both columns G and H are 0, the output is "Paynet".</a:t>
+          </a:r>
         </a:p>
         <a:p>
-          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" b="1"/>
+            <a:t>Second Condition</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-IN"/>
-            <a:t>If the range in column F is "350,001-500,000", "500,001-1,000,000", or "Greater than 1,000,000" and both columns G and H are 0, the output is "Paynet".</a:t>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>If the range in column F is "350,001-500,000", "500,001-1,000,000", or "Greater than 1,000,000" and either column G or H is 1, the output is "D&amp;B".</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-IN" b="1"/>
-            <a:t>Second Condition</a:t>
+            <a:t>Third Condition</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-IN"/>
             <a:t>:</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>If the range in column F is "0-10,000", "10,001-150,000", or "150,001-350,000" and either column G or H is 1, the output is "Paynet".</a:t>
+          </a:r>
         </a:p>
         <a:p>
-          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" b="1"/>
+            <a:t>Fourth Condition</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-IN"/>
-            <a:t>If the range in column F is "350,001-500,000", "500,001-1,000,000", or "Greater than 1,000,000" and either column G or H is 1, the output is "D&amp;B".</a:t>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>If the range in column F is "0-10,000", "10,001-150,000", or "150,001-350,000" and both columns G and H are 0 and column J is 1, the output is "D&amp;B".</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-IN" b="1"/>
-            <a:t>Third Condition</a:t>
+            <a:t>Fifth Condition</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-IN"/>
             <a:t>:</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>If the range in column F is "0-10,000", "10,001-150,000", or "150,001-350,000" and both columns G and H are 0, column J is 0, and column K is 1, the output is "BE".</a:t>
+          </a:r>
         </a:p>
         <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="en-IN"/>
-            <a:t>If the range in column F is "0-10,000", "10,001-150,000", or "150,001-350,000" and either column G or H is 1, the output is "Paynet".</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
           <a:r>
             <a:rPr lang="en-IN" b="1"/>
-            <a:t>Fourth Condition</a:t>
+            <a:t>Sixth Condition</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-IN"/>
             <a:t>:</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="en-IN"/>
-            <a:t>If the range in column F is "0-10,000", "10,001-150,000", or "150,001-350,000" and both columns G and H are 0 and column J is 1, the output is "D&amp;B".</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-IN" b="1"/>
-            <a:t>Fifth Condition</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN"/>
-            <a:t>:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="en-IN"/>
-            <a:t>If the range in column F is "0-10,000", "10,001-150,000", or "150,001-350,000" and both columns G and H are 0, column J is 0, and column K is 1, the output is "BE".</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-IN" b="1"/>
-            <a:t>Sixth Condition</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN"/>
-            <a:t>:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-IN"/>
             <a:t>If the range in column F is "0-10,000", "10,001-150,000", or "150,001-350,000" and columns G, H, J, and K are all 0, the output is "Paynet".</a:t>
@@ -678,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76955050-955E-427B-BDFD-692CFC35B5BB}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,6 +708,7 @@
     <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -818,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L11" si="4">IF(AND(OR(F3="350,001-500,000",F3="500,001-1,000,000",F3="Greater than 1,000,000"),OR(G3=1,H3=1)),IF(J3=1,"D&amp;B",IF(AND(J3=0,K3=1),"BE",IF(AND(J3=0,K3=0),"Paynet","D&amp;B"))),IF(AND(OR(F3="0-10,000",F3="10,001-150,000",F3="150,001-350,000"),OR(G3=1,H3=1)),"Paynet",IF(AND(OR(F3="0-10,000",F3="10,001-150,000",F3="150,001-350,000"),AND(G3=0,H3=0),J3=1),"D&amp;B",IF(AND(OR(F3="0-10,000",F3="10,001-150,000",F3="150,001-350,000"),AND(G3=0,H3=0),J3=0,K3=1),"BE",IF(AND(OR(F3="0-10,000",F3="10,001-150,000",F3="150,001-350,000"),AND(G3=0,H3=0),J3=0,K3=0),"Paynet","D&amp;B")))))</f>
+        <f t="shared" ref="L3:L14" si="4">IF(AND(OR(F3="350,001-500,000",F3="500,001-1,000,000",F3="Greater than 1,000,000"),OR(G3=1,H3=1)),IF(J3=1,"D&amp;B",IF(AND(J3=0,K3=1),"BE",IF(AND(J3=0,K3=0),"Paynet","D&amp;B"))),IF(AND(OR(F3="0-10,000",F3="10,001-150,000",F3="150,001-350,000"),OR(G3=1,H3=1)),"Paynet",IF(AND(OR(F3="0-10,000",F3="10,001-150,000",F3="150,001-350,000"),AND(G3=0,H3=0),J3=1),"D&amp;B",IF(AND(OR(F3="0-10,000",F3="10,001-150,000",F3="150,001-350,000"),AND(G3=0,H3=0),J3=0,K3=1),"BE",IF(AND(OR(F3="0-10,000",F3="10,001-150,000",F3="150,001-350,000"),AND(G3=0,H3=0),J3=0,K3=0),"Paynet","D&amp;B")))))</f>
         <v>Paynet</v>
       </c>
     </row>
@@ -1109,19 +1126,19 @@
         <v>1</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" ref="F10:F11" si="9">IF(B10&lt;=10000, "0-10,000", IF(B10&lt;=150000, "10,001-150,000", IF(B10&lt;=350000, "150,001-350,000", IF(B10&lt;=500000, "350,001-500,000", IF(B10&lt;=1000000, "500,001-1,000,000", "Greater than 1,000,000")))))</f>
+        <f t="shared" ref="F10:F14" si="9">IF(B10&lt;=10000, "0-10,000", IF(B10&lt;=150000, "10,001-150,000", IF(B10&lt;=350000, "150,001-350,000", IF(B10&lt;=500000, "350,001-500,000", IF(B10&lt;=1000000, "500,001-1,000,000", "Greater than 1,000,000")))))</f>
         <v>500,001-1,000,000</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="G10:G11" si="10">IF(OR(AND(OR(F10="0-10,000", F10="10,001-150,000", F10="150,001-350,000"), OR(C10="Agriculture", C10="Fishing")), AND(OR(F10="350,001-500,000", F10="500,001-1,000,000", F10="Greater than 1,000,000"), C10="Mining")), 1, 0)</f>
+        <f t="shared" ref="G10:G14" si="10">IF(OR(AND(OR(F10="0-10,000", F10="10,001-150,000", F10="150,001-350,000"), OR(C10="Agriculture", C10="Fishing")), AND(OR(F10="350,001-500,000", F10="500,001-1,000,000", F10="Greater than 1,000,000"), C10="Mining")), 1, 0)</f>
         <v>1</v>
       </c>
       <c r="H10">
-        <f t="shared" ref="H10:H11" si="11">IF(AND(OR(F10="0-10,000", F10="10,001-150,000", F10="150,001-350,000"), OR(D10="businesscapital", D10="healtcare")), 1, 0)</f>
+        <f t="shared" ref="H10:H14" si="11">IF(AND(OR(F10="0-10,000", F10="10,001-150,000", F10="150,001-350,000"), OR(D10="businesscapital", D10="healtcare")), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" ref="I10:I11" si="12">IF(AND(OR(F10="350,001-500,000", F10="500,001-1,000,000", F10="Greater than 1,000,000"), E10=1), 1, 0)</f>
+        <f t="shared" ref="I10:I14" si="12">IF(AND(OR(F10="350,001-500,000", F10="500,001-1,000,000", F10="Greater than 1,000,000"), E10=1), 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J10">
@@ -1180,6 +1197,151 @@
       <c r="L11" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>D&amp;B</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>33322</v>
+      </c>
+      <c r="B12">
+        <v>9000000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="9"/>
+        <v>Greater than 1,000,000</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <f ca="1">IF(OR( AND(Sheet2!A12&gt;3, Sheet2!A12&lt;&gt;"NULL", Sheet2!A12&lt;&gt;"I", NOT(ISBLANK(Sheet2!A12))), AND(Sheet2!B12&gt;5, Sheet2!B12&lt;&gt;"NULL", Sheet2!B12&lt;&gt;"I", NOT(ISBLANK(Sheet2!B12))), AND(Sheet2!D12&gt;10, Sheet2!D12&lt;&gt;"NULL", Sheet2!D12&lt;&gt;"I", NOT(ISBLANK(Sheet2!D12))), AND(Sheet2!E12&gt;3, Sheet2!E12&lt;&gt;"NULL", Sheet2!E12&lt;&gt;"I", NOT(ISBLANK(Sheet2!E12))), AND(Sheet2!F12&lt;&gt;"NULL", Sheet2!F12&lt;&gt;"I", NOT(ISBLANK(Sheet2!F12))) ), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f ca="1">IF(OR( AND(Sheet2!I12&gt;0, Sheet2!I12&lt;&gt;"NULL", Sheet2!I12&lt;&gt;"I", NOT(ISBLANK(Sheet2!I12))), AND(Sheet2!J12&gt;0, Sheet2!J12&lt;&gt;"NULL", Sheet2!J12&lt;&gt;"I", NOT(ISBLANK(Sheet2!J12))), AND(Sheet2!L12&gt;0, Sheet2!L12&lt;&gt;"NULL", Sheet2!L12&lt;&gt;"I", NOT(ISBLANK(Sheet2!L12))), AND(Sheet2!M12&gt;0, Sheet2!M12&lt;&gt;"NULL", Sheet2!M12&lt;&gt;"I", NOT(ISBLANK(Sheet2!M12))), AND(Sheet2!N12&gt;0, Sheet2!N12&lt;&gt;"NULL", Sheet2!N12&lt;&gt;"I", NOT(ISBLANK(Sheet2!N12))) ), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>D&amp;B</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>66966</v>
+      </c>
+      <c r="B13">
+        <v>2500</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="9"/>
+        <v>0-10,000</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f ca="1">IF(OR( AND(Sheet2!A13&gt;3, Sheet2!A13&lt;&gt;"NULL", Sheet2!A13&lt;&gt;"I", NOT(ISBLANK(Sheet2!A13))), AND(Sheet2!B13&gt;5, Sheet2!B13&lt;&gt;"NULL", Sheet2!B13&lt;&gt;"I", NOT(ISBLANK(Sheet2!B13))), AND(Sheet2!D13&gt;10, Sheet2!D13&lt;&gt;"NULL", Sheet2!D13&lt;&gt;"I", NOT(ISBLANK(Sheet2!D13))), AND(Sheet2!E13&gt;3, Sheet2!E13&lt;&gt;"NULL", Sheet2!E13&lt;&gt;"I", NOT(ISBLANK(Sheet2!E13))), AND(Sheet2!F13&lt;&gt;"NULL", Sheet2!F13&lt;&gt;"I", NOT(ISBLANK(Sheet2!F13))) ), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <f ca="1">IF(OR( AND(Sheet2!I13&gt;0, Sheet2!I13&lt;&gt;"NULL", Sheet2!I13&lt;&gt;"I", NOT(ISBLANK(Sheet2!I13))), AND(Sheet2!J13&gt;0, Sheet2!J13&lt;&gt;"NULL", Sheet2!J13&lt;&gt;"I", NOT(ISBLANK(Sheet2!J13))), AND(Sheet2!L13&gt;0, Sheet2!L13&lt;&gt;"NULL", Sheet2!L13&lt;&gt;"I", NOT(ISBLANK(Sheet2!L13))), AND(Sheet2!M13&gt;0, Sheet2!M13&lt;&gt;"NULL", Sheet2!M13&lt;&gt;"I", NOT(ISBLANK(Sheet2!M13))), AND(Sheet2!N13&gt;0, Sheet2!N13&lt;&gt;"NULL", Sheet2!N13&lt;&gt;"I", NOT(ISBLANK(Sheet2!N13))) ), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>D&amp;B</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>63877</v>
+      </c>
+      <c r="B14">
+        <v>30000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="9"/>
+        <v>10,001-150,000</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f ca="1">IF(OR( AND(Sheet2!A14&gt;3, Sheet2!A14&lt;&gt;"NULL", Sheet2!A14&lt;&gt;"I", NOT(ISBLANK(Sheet2!A14))), AND(Sheet2!B14&gt;5, Sheet2!B14&lt;&gt;"NULL", Sheet2!B14&lt;&gt;"I", NOT(ISBLANK(Sheet2!B14))), AND(Sheet2!D14&gt;10, Sheet2!D14&lt;&gt;"NULL", Sheet2!D14&lt;&gt;"I", NOT(ISBLANK(Sheet2!D14))), AND(Sheet2!E14&gt;3, Sheet2!E14&lt;&gt;"NULL", Sheet2!E14&lt;&gt;"I", NOT(ISBLANK(Sheet2!E14))), AND(Sheet2!F14&lt;&gt;"NULL", Sheet2!F14&lt;&gt;"I", NOT(ISBLANK(Sheet2!F14))) ), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <f ca="1">IF(OR( AND(Sheet2!I14&gt;0, Sheet2!I14&lt;&gt;"NULL", Sheet2!I14&lt;&gt;"I", NOT(ISBLANK(Sheet2!I14))), AND(Sheet2!J14&gt;0, Sheet2!J14&lt;&gt;"NULL", Sheet2!J14&lt;&gt;"I", NOT(ISBLANK(Sheet2!J14))), AND(Sheet2!L14&gt;0, Sheet2!L14&lt;&gt;"NULL", Sheet2!L14&lt;&gt;"I", NOT(ISBLANK(Sheet2!L14))), AND(Sheet2!M14&gt;0, Sheet2!M14&lt;&gt;"NULL", Sheet2!M14&lt;&gt;"I", NOT(ISBLANK(Sheet2!M14))), AND(Sheet2!N14&gt;0, Sheet2!N14&lt;&gt;"NULL", Sheet2!N14&lt;&gt;"I", NOT(ISBLANK(Sheet2!N14))) ), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="4"/>
+        <v>Paynet</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <f>IF(OR( AND(Sheet2!A15&gt;3, Sheet2!A15&lt;&gt;"NULL", Sheet2!A15&lt;&gt;"I", NOT(ISBLANK(Sheet2!A15))), AND(Sheet2!B15&gt;5, Sheet2!B15&lt;&gt;"NULL", Sheet2!B15&lt;&gt;"I", NOT(ISBLANK(Sheet2!B15))), AND(Sheet2!D15&gt;10, Sheet2!D15&lt;&gt;"NULL", Sheet2!D15&lt;&gt;"I", NOT(ISBLANK(Sheet2!D15))), AND(Sheet2!E15&gt;3, Sheet2!E15&lt;&gt;"NULL", Sheet2!E15&lt;&gt;"I", NOT(ISBLANK(Sheet2!E15))), AND(Sheet2!F15&lt;&gt;"NULL", Sheet2!F15&lt;&gt;"I", NOT(ISBLANK(Sheet2!F15))) ), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f>IF(OR( AND(Sheet2!I15&gt;0, Sheet2!I15&lt;&gt;"NULL", Sheet2!I15&lt;&gt;"I", NOT(ISBLANK(Sheet2!I15))), AND(Sheet2!J15&gt;0, Sheet2!J15&lt;&gt;"NULL", Sheet2!J15&lt;&gt;"I", NOT(ISBLANK(Sheet2!J15))), AND(Sheet2!L15&gt;0, Sheet2!L15&lt;&gt;"NULL", Sheet2!L15&lt;&gt;"I", NOT(ISBLANK(Sheet2!L15))), AND(Sheet2!M15&gt;0, Sheet2!M15&lt;&gt;"NULL", Sheet2!M15&lt;&gt;"I", NOT(ISBLANK(Sheet2!M15))), AND(Sheet2!N15&gt;0, Sheet2!N15&lt;&gt;"NULL", Sheet2!N15&lt;&gt;"I", NOT(ISBLANK(Sheet2!N15))) ), 1, 0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.3">
@@ -1195,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F0C1F0-4577-4179-91F1-46D77B087994}">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1294,42 +1456,42 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>24</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D14" ca="1" si="0">IF(AND(ISNUMBER(C3), C3 &gt; 1900), YEAR(TODAY()) - C3, 0)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" t="s">
         <v>24</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L15" ca="1" si="1">IF(AND(ISNUMBER(K3), K3 &gt; 1900), YEAR(TODAY()) - K3, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="3" t="s">
+        <f t="shared" ref="L3:L14" ca="1" si="1">IF(AND(ISNUMBER(K3), K3 &gt; 1900), YEAR(TODAY()) - K3, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1701,11 +1863,11 @@
         <v>155</v>
       </c>
       <c r="C13">
-        <v>1994</v>
+        <v>604</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>36</v>
@@ -1735,17 +1897,17 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B14">
         <v>63</v>
       </c>
       <c r="C14">
-        <v>1994</v>
+        <v>505</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>36</v>
